--- a/etc/content.xlsx
+++ b/etc/content.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmenedes\git\pods\etc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkeane\git\pods\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5C0B33ED-D46A-4A92-9587-CBE05C8E10E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="R3yVt3ehGGwAGWW29EWf7PpOUEfFlWo9pTRX3nnWHXlzUaTsJt2SXEJmuTEYf/Sk3r4PXZ7ZgBGy3W3IPV4mBA==" workbookSaltValue="p9W5egwA6KCLSw1WeFFxmw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="5955"/>
   </bookViews>
   <sheets>
     <sheet name="content" sheetId="1" r:id="rId1"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>key</t>
   </si>
@@ -42,25 +44,34 @@
     <t>splash</t>
   </si>
   <si>
+    <t>&lt;h2&gt;No POD activation is currently in place.&lt;/h2&gt;&lt;p&gt;Points of Dispensing (PODs) are temporary sites that are ready to open to provide life-saving medications to anyone who needs them during a communcable disease outbreak or after a biological attack. Sites are located throughout the city and are run by the NYC Department of Health and Mental Hygiene. All NYC POD sites are wheelchair accessible. For more information, please visit our &lt;a href=https://www1.nyc.gov/site/doh/health/emergency-preparedness/emergency-medication-distribution.page&gt;webpage.&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>active</t>
   </si>
   <si>
     <t>pods_url</t>
   </si>
   <si>
-    <t>https://services3.arcgis.com/A6Zjpzrub8ESZ3c7/arcgis/rest/services/vwLatestDateLocator/FeatureServer/0/query?f=pgeojson&amp;outSR=2263&amp;outFields=ActivePOD%20as%20activepod,DOHMHPODLink%20as%20lnk,DOECode%20as%20id,PODSiteName%20as%20name,Address%20as%20addr,Borough%20as%20boro,ZIP%20as%20zip,Ops_status%20as%20status,OpeningTime%20as%20opening,wait_time%20as%20wait,LatestDate%20as%20updated,%20LabelPos%20as%20labelpos&amp;where=activepod%3D1</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;No POD activation is currently in place.&lt;/h2&gt;&lt;p&gt;Points of Dispensing (PODs) are temporary sites that are ready to open to provide life-saving medications to anyone who needs them after a biological attack or during a communicable disease outbreak. The sites are located throughout the city and are run by the NYC Department of Health and Mental Hygiene. All NYC POD sites are wheelchair accessible. For more information, please visit our &lt;a href=https://www1.nyc.gov/site/doh/health/emergency-preparedness/emergency-medication-distribution.page&gt;webpage.&lt;/a&gt;&lt;br&gt;&lt;br&gt;If you do not live in NYC, please check with your local health department:  &lt;a href=http://www.nassaucountyny.gov/agencies/Health/index.html&gt;Nassau County&lt;/a&gt;, &lt;a href=https://www.suffolkcountyny.gov/health&gt;Suffolk County&lt;/a&gt;, &lt;a href=https://www.co.bergen.nj.us/departments-and-services/about-health-services&gt;Bergen County&lt;/a&gt;, &lt;a href=https://www.health.ny.gov/contact/contact_information&gt;New York State&lt;/a&gt;, &lt;a href=https://www.state.nj.us/health/lh/community&gt; New Jersey State&lt;/a&gt;.&lt;/p&gt;&amp;quot;</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>https://services3.arcgis.com/A6Zjpzrub8ESZ3c7/arcgis/rest/services/vwLatestDateLocator/FeatureServer/0/query?f=pgeojson&amp;outSR=2263&amp;outFields=ActivePOD,DOHMHPODLink,DOECode,PODSiteName,Address,Borough,ZIP,Ops_status,OpeningTime,wait_time,LatestDate,LabelPos&amp;where=activepod%3D1</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
     <t>Not all Points of Dispensing sites may be activated at the time of an event. Please continue checking this page to see which sites are activated following an event. If you do not live in NYC, please check with your local health department.</t>
+  </si>
+  <si>
+    <t>.splash .btn-yes</t>
+  </si>
+  <si>
+    <t>Screen reader instructions</t>
+  </si>
+  <si>
+    <t>.splash .btn-no</t>
+  </si>
+  <si>
+    <t>View map to find your closest POD site</t>
   </si>
 </sst>
 </file>
@@ -129,7 +140,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -522,36 +533,33 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -629,7 +637,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -641,7 +649,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -909,78 +917,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JBELkc9A0bXkONC+CoUbCQy/8Z1jQCemyVDtbBgRc/O0FWuJA+1dDeDGom9I1cLjUt3aEHdEte8tyFi9GQp/5w==" saltValue="wQaTZEKspZMt62J4lzgABg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Value must be true or false - select from dropdown" sqref="B5">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <sheetProtection algorithmName="SHA-512" hashValue="Nthtc8ZcEKPkqSvy/gAx1nGCr5EowgBXEMuSANG29a/LApdxiFOULxZDiFZ5TZXU1/pRZQ78PsKnDimxVD4lIA==" saltValue="a/aL5F+/EAv2UhQrxm6OlQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="90" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/etc/content.xlsx
+++ b/etc/content.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkeane\git\pods\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5C0B33ED-D46A-4A92-9587-CBE05C8E10E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="R3yVt3ehGGwAGWW29EWf7PpOUEfFlWo9pTRX3nnWHXlzUaTsJt2SXEJmuTEYf/Sk3r4PXZ7ZgBGy3W3IPV4mBA==" workbookSaltValue="p9W5egwA6KCLSw1WeFFxmw==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981DC280-D1A0-42CE-BF87-6CDFB4B80267}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="5955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="5565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="content" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>key</t>
   </si>
@@ -44,16 +43,16 @@
     <t>splash</t>
   </si>
   <si>
-    <t>&lt;h2&gt;No POD activation is currently in place.&lt;/h2&gt;&lt;p&gt;Points of Dispensing (PODs) are temporary sites that are ready to open to provide life-saving medications to anyone who needs them during a communcable disease outbreak or after a biological attack. Sites are located throughout the city and are run by the NYC Department of Health and Mental Hygiene. All NYC POD sites are wheelchair accessible. For more information, please visit our &lt;a href=https://www1.nyc.gov/site/doh/health/emergency-preparedness/emergency-medication-distribution.page&gt;webpage.&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>active</t>
   </si>
   <si>
     <t>pods_url</t>
   </si>
   <si>
-    <t>https://services3.arcgis.com/A6Zjpzrub8ESZ3c7/arcgis/rest/services/vwLatestDateLocator/FeatureServer/0/query?f=pgeojson&amp;outSR=2263&amp;outFields=ActivePOD,DOHMHPODLink,DOECode,PODSiteName,Address,Borough,ZIP,Ops_status,OpeningTime,wait_time,LatestDate,LabelPos&amp;where=activepod%3D1</t>
+    <t>https://services3.arcgis.com/A6Zjpzrub8ESZ3c7/arcgis/rest/services/vwLatestDateLocator/FeatureServer/0/query?f=pgeojson&amp;outSR=2263&amp;outFields=ActivePOD%20as%20activepod,DOHMHPODLink%20as%20lnk,DOECode%20as%20id,PODSiteName%20as%20name,Address%20as%20addr,Borough%20as%20boro,ZIP%20as%20zip,Ops_status%20as%20status,OpeningTime%20as%20opening,wait_time%20as%20wait,LatestDate%20as%20updated,%20LabelPos%20as%20labelpos&amp;where=activepod%3D1</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;No POD activation is currently in place.&lt;/h2&gt;&lt;p&gt;Points of Dispensing (PODs) are temporary sites that are ready to open to provide life-saving medications to anyone who needs them after a biological attack or during a communicable disease outbreak. The sites are located throughout the city and are run by the NYC Department of Health and Mental Hygiene. All NYC POD sites are wheelchair accessible. For more information, please visit our &lt;a href=https://www1.nyc.gov/site/doh/health/emergency-preparedness/emergency-medication-distribution.page&gt;webpage.&lt;/a&gt;&lt;br&gt;&lt;br&gt;If you do not live in NYC, please check with your local health department:  &lt;a href=http://www.nassaucountyny.gov/agencies/Health/index.html&gt;Nassau County&lt;/a&gt;, &lt;a href=https://www.suffolkcountyny.gov/health&gt;Suffolk County&lt;/a&gt;, &lt;a href=https://www.co.bergen.nj.us/departments-and-services/about-health-services&gt;Bergen County&lt;/a&gt;, &lt;a href=https://www.health.ny.gov/contact/contact_information&gt;New York State&lt;/a&gt;, &lt;a href=https://www.state.nj.us/health/lh/community&gt; New Jersey State&lt;/a&gt;.&lt;/p&gt;&amp;quot;</t>
   </si>
   <si>
     <t>description</t>
@@ -62,22 +61,25 @@
     <t>Not all Points of Dispensing sites may be activated at the time of an event. Please continue checking this page to see which sites are activated following an event. If you do not live in NYC, please check with your local health department.</t>
   </si>
   <si>
+    <t>.splash .btn-no</t>
+  </si>
+  <si>
+    <t>View map to find your closest POD site</t>
+  </si>
+  <si>
     <t>.splash .btn-yes</t>
   </si>
   <si>
     <t>Screen reader instructions</t>
   </si>
   <si>
-    <t>.splash .btn-no</t>
-  </si>
-  <si>
-    <t>View map to find your closest POD site</t>
+    <t>false</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,7 +142,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -533,33 +535,36 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -637,7 +642,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -649,7 +654,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -916,193 +921,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="b">
-        <v>0</v>
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Nthtc8ZcEKPkqSvy/gAx1nGCr5EowgBXEMuSANG29a/LApdxiFOULxZDiFZ5TZXU1/pRZQ78PsKnDimxVD4lIA==" saltValue="a/aL5F+/EAv2UhQrxm6OlQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="k5x9iR/lkVwY+Z/cG4vBF41DqQQODh6u09VPfJ6FbYYgO73nQvR0UJXI4JVaGoOFE5rSf7hs8AVE+mRPaliJTA==" saltValue="ftqjUOsJdTSP5AwFvLmR+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Value must be true or false - select from dropdown" sqref="B5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>